--- a/public/data/soil/soil_table_swaziland.xlsx
+++ b/public/data/soil/soil_table_swaziland.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -788,25 +788,25 @@
         <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>668.7</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>9560.7</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.462</v>
+        <v>13.475</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -823,28 +823,28 @@
         <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>491.1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>5090.2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>82.1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.171</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.451</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>794.5</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>13602.1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.952</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>12.381</v>
+        <v>11.853</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>73.1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3606.5</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>6655</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.788</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>9.548</v>
+        <v>12.405</v>
       </c>
     </row>
     <row r="6">
@@ -928,25 +928,25 @@
         <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>748.1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>720.7</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.134</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.451</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -963,25 +963,25 @@
         <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>2836.9</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>764.7</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2.482</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1004,10 +1004,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1340</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>15176.9</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1016,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.728</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>18.34</v>
+        <v>12.712</v>
       </c>
     </row>
     <row r="9">
@@ -1033,25 +1033,25 @@
         <v>38</v>
       </c>
       <c r="D9" t="n">
-        <v>7557.2</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>8972.7</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>9.059</v>
+        <v>8.568</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>6.59</v>
+        <v>10.033</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1068,28 +1068,28 @@
         <v>39</v>
       </c>
       <c r="D10" t="n">
-        <v>174.4</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24769.9</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3271.8</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.072</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>13.508</v>
+        <v>10.975</v>
       </c>
       <c r="K10" t="n">
-        <v>2.334</v>
+        <v>5.958</v>
       </c>
     </row>
     <row r="11">
@@ -1103,28 +1103,28 @@
         <v>40</v>
       </c>
       <c r="D11" t="n">
-        <v>757.2</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>8896.9</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7159.7</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.095</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>7.928</v>
+        <v>11.304</v>
       </c>
       <c r="K11" t="n">
-        <v>8.867</v>
+        <v>3.161</v>
       </c>
     </row>
     <row r="12">
@@ -1138,25 +1138,25 @@
         <v>41</v>
       </c>
       <c r="D12" t="n">
-        <v>6289.3</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>14598.2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>4.38</v>
+        <v>5.432</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>9.24</v>
+        <v>10.968</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>42</v>
       </c>
       <c r="D13" t="n">
-        <v>1300.8</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>8979.1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>4441.1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.544</v>
+        <v>1.77</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>9.053</v>
+        <v>3.364</v>
       </c>
       <c r="K13" t="n">
-        <v>8.171</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="14">
@@ -1208,25 +1208,25 @@
         <v>43</v>
       </c>
       <c r="D14" t="n">
-        <v>17277.2</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>8320.6</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>9.465</v>
+        <v>9.078</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>4.563</v>
+        <v>4.77</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>873.2</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>4335.3</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1261,10 +1261,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.816</v>
+        <v>2.952</v>
       </c>
       <c r="K15" t="n">
-        <v>6.732</v>
+        <v>4.676</v>
       </c>
     </row>
     <row r="16">
@@ -1284,10 +1284,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>653.1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>22385</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1296,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.709</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>23.865</v>
+        <v>29.295</v>
       </c>
     </row>
     <row r="17">
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>17167.4</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>6.785</v>
+        <v>12.184</v>
       </c>
     </row>
     <row r="18">
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>2918.1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>8664.9</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1366,10 +1366,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>3.897</v>
+        <v>4.052</v>
       </c>
       <c r="K18" t="n">
-        <v>10.226</v>
+        <v>7.503</v>
       </c>
     </row>
     <row r="19">
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>19206</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>10.928</v>
+        <v>12.53</v>
       </c>
     </row>
     <row r="20">
@@ -1418,16 +1418,16 @@
         <v>50</v>
       </c>
       <c r="D20" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2940.4</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>7535.3</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1436,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.843</v>
+        <v>1.112</v>
       </c>
       <c r="K20" t="n">
-        <v>5.813</v>
+        <v>3.182</v>
       </c>
     </row>
     <row r="21">
@@ -1453,28 +1453,28 @@
         <v>51</v>
       </c>
       <c r="D21" t="n">
-        <v>198.6</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>75.5</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>5392.9</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>4594.6</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.257</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.076</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>4.8</v>
+        <v>3.186</v>
       </c>
       <c r="K21" t="n">
-        <v>4.788</v>
+        <v>6.541</v>
       </c>
     </row>
     <row r="22">
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>326.1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>32519.7</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1506,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.133</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>14.685</v>
+        <v>15.095</v>
       </c>
     </row>
     <row r="23">
@@ -1523,28 +1523,28 @@
         <v>53</v>
       </c>
       <c r="D23" t="n">
-        <v>178.5</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>2833</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>18636.3</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.182</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.863</v>
+        <v>1.353</v>
       </c>
       <c r="K23" t="n">
-        <v>13.477</v>
+        <v>18.164</v>
       </c>
     </row>
     <row r="24">
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>27152.4</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>14.09</v>
+        <v>9.898</v>
       </c>
     </row>
     <row r="25">
@@ -1593,28 +1593,28 @@
         <v>55</v>
       </c>
       <c r="D25" t="n">
-        <v>156.6</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>2190.3</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>19507.8</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.124</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.508</v>
+        <v>1.274</v>
       </c>
       <c r="K25" t="n">
-        <v>18.251</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="26">
@@ -1634,10 +1634,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>507.4</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>27419.4</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1646,10 +1646,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.289</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>23.837</v>
+        <v>22.312</v>
       </c>
     </row>
     <row r="27">
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>8298.8</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2764.6</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1681,10 +1681,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>12.629</v>
+        <v>15.58</v>
       </c>
       <c r="K27" t="n">
-        <v>3.778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1704,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>158.9</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1056.5</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1733,28 +1733,28 @@
         <v>60</v>
       </c>
       <c r="D29" t="n">
-        <v>133.4</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>5238.7</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1122.7</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>6.107</v>
+        <v>13.002</v>
       </c>
       <c r="K29" t="n">
-        <v>2.681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1768,28 +1768,28 @@
         <v>61</v>
       </c>
       <c r="D30" t="n">
-        <v>326.8</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>5362.2</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>4314.1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.171</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>8.044</v>
+        <v>13.298</v>
       </c>
       <c r="K30" t="n">
-        <v>6.095</v>
+        <v>4.826</v>
       </c>
     </row>
     <row r="31">
@@ -1803,28 +1803,28 @@
         <v>62</v>
       </c>
       <c r="D31" t="n">
-        <v>184.1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>10500.6</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>694.2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.171</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>11.867</v>
+        <v>12.237</v>
       </c>
       <c r="K31" t="n">
-        <v>0.278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1844,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>28.7</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>9708.6</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>12.948</v>
+        <v>16.774</v>
       </c>
     </row>
     <row r="33">
@@ -1879,10 +1879,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>14359.7</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>7338</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>8.852</v>
+        <v>8.25</v>
       </c>
       <c r="K33" t="n">
-        <v>6.918</v>
+        <v>5.473</v>
       </c>
     </row>
     <row r="34">
@@ -1908,25 +1908,25 @@
         <v>65</v>
       </c>
       <c r="D34" t="n">
-        <v>1021</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>19698.6</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.152</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>5.784</v>
+        <v>5.942</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -1949,10 +1949,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>918</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1122.7</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>772.9</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.252</v>
+        <v>4.827</v>
       </c>
     </row>
     <row r="37">
@@ -2013,25 +2013,25 @@
         <v>68</v>
       </c>
       <c r="D37" t="n">
-        <v>7994.1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>16653.3</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.774</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>6.465</v>
+        <v>4.798</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -2054,10 +2054,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1279.4</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>20516.4</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2066,10 +2066,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.532</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>20.349</v>
+        <v>19.873</v>
       </c>
     </row>
     <row r="39">
@@ -2089,10 +2089,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1610.6</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>10702.4</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2101,10 +2101,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.926</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>10.673</v>
+        <v>10.172</v>
       </c>
     </row>
     <row r="40">
@@ -2118,28 +2118,28 @@
         <v>71</v>
       </c>
       <c r="D40" t="n">
-        <v>1605.2</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>23268.9</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2858.4</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.673</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>17.778</v>
+        <v>28.48</v>
       </c>
       <c r="K40" t="n">
-        <v>4.536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2159,10 +2159,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>200.6</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>13158.1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2171,10 +2171,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.045</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>11.75</v>
+        <v>8.864</v>
       </c>
     </row>
     <row r="42">
@@ -2188,28 +2188,28 @@
         <v>73</v>
       </c>
       <c r="D42" t="n">
-        <v>149.3</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>4906.9</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>7250.7</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.071</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>3.869</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>7.54</v>
+        <v>8.567</v>
       </c>
     </row>
     <row r="43">
@@ -2223,28 +2223,28 @@
         <v>75</v>
       </c>
       <c r="D43" t="n">
-        <v>274.4</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>15130.7</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>10442</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.026</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>6.41</v>
+        <v>8.428</v>
       </c>
       <c r="K43" t="n">
-        <v>5.764</v>
+        <v>2.685</v>
       </c>
     </row>
     <row r="44">
@@ -2264,10 +2264,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1633.3</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>12153.1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2276,10 +2276,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.937</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>12.314</v>
+        <v>16.48</v>
       </c>
     </row>
     <row r="45">
@@ -2293,28 +2293,28 @@
         <v>77</v>
       </c>
       <c r="D45" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>4540</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>6268.4</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1.689</v>
+        <v>0.976</v>
       </c>
       <c r="K45" t="n">
-        <v>2.563</v>
+        <v>1.333</v>
       </c>
     </row>
     <row r="46">
@@ -2328,28 +2328,28 @@
         <v>78</v>
       </c>
       <c r="D46" t="n">
-        <v>212.2</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1405.7</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>10038.9</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.262</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.453</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>13.522</v>
+        <v>14.325</v>
       </c>
     </row>
     <row r="47">
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>16479.2</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>12.166</v>
+        <v>8.791</v>
       </c>
     </row>
     <row r="48">
@@ -2398,28 +2398,28 @@
         <v>80</v>
       </c>
       <c r="D48" t="n">
-        <v>1896.8</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>6325</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>8593.7</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1.337</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>5.245</v>
+        <v>6.288</v>
       </c>
       <c r="K48" t="n">
-        <v>8.398</v>
+        <v>6.459</v>
       </c>
     </row>
     <row r="49">
@@ -2439,10 +2439,10 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>6329.7</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>7390.6</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2451,10 +2451,10 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>6.38</v>
+        <v>8.459</v>
       </c>
       <c r="K49" t="n">
-        <v>5.937</v>
+        <v>4.063</v>
       </c>
     </row>
     <row r="50">
@@ -2468,28 +2468,28 @@
         <v>82</v>
       </c>
       <c r="D50" t="n">
-        <v>15.2</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>1964.1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>3843.8</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1.719</v>
+        <v>4.084</v>
       </c>
       <c r="K50" t="n">
-        <v>4.571</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="51">
@@ -2509,10 +2509,10 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>6584.4</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>6796.4</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>3.113</v>
+        <v>6.403</v>
       </c>
       <c r="K51" t="n">
-        <v>3.34</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="52">
@@ -2544,10 +2544,10 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>2242.2</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>7284.2</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2556,10 +2556,10 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1.612</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>8.387</v>
+        <v>7.507</v>
       </c>
     </row>
     <row r="53">
@@ -2579,10 +2579,10 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>1309</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>9901.1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2591,10 +2591,10 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1.067</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>8.783</v>
+        <v>9.525</v>
       </c>
     </row>
     <row r="54">
@@ -2614,10 +2614,10 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>297.6</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>8590.7</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2626,10 +2626,10 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0.306</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>8.04</v>
+        <v>4.921</v>
       </c>
     </row>
     <row r="55">
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>9411.1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>3.795</v>
+        <v>1.847</v>
       </c>
     </row>
     <row r="56">
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>2575.5</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>7209.9</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2696,10 +2696,10 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>3.196</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>7.274</v>
+        <v>6.117</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/soil/soil_table_swaziland.xlsx
+++ b/public/data/soil/soil_table_swaziland.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3400.1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3181.7</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1660.3</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -928,7 +928,7 @@
         <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>391.7</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>391.7</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1004,10 +1004,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>882.5</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>5211.3</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1033,13 +1033,13 @@
         <v>38</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1439.2</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2613.3</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>5931.1</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2216.6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>40</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>275.2</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1458.7</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1392.8</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>41</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1800.3</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>4680.4</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1173,16 +1173,16 @@
         <v>42</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>568.1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2447.5</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1280.7</v>
       </c>
       <c r="H13" t="n">
         <v>1.77</v>
@@ -1208,13 +1208,13 @@
         <v>43</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>858.2</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2779.5</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>808.2</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>738.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2797.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>11325.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1231.9</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>7176.6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3119</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1424,10 +1424,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>246.7</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5067.3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1459,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>328.6</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2727.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>830.5</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>24248.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>466.9</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5624.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>9342.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1599,10 +1599,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>347.9</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>4002.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1634,10 +1634,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1424.9</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5252.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>2380.9</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1124.3</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1070.3</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1922.6</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2715.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>3176</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1844,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1069</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>3551.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1879,10 +1879,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>3327.3</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1166.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>3852.1</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1949,10 +1949,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1124.3</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>989.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1291.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>3386</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -2054,10 +2054,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1995.3</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5977.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>4820.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>9551.3</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>4648.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2194,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>2781.7</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>4901.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2229,10 +2229,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>4309.4</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2076.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2267,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2928</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2299,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>572.1</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1508.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2334,10 +2334,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>551.6</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>3180</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1577.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2404,10 +2404,10 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>2160.4</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>3554.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2439,10 +2439,10 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>2285.8</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>2190.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2474,10 +2474,10 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1033.8</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>721.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2509,10 +2509,10 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>2241.7</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>696.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>3121.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1556.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1354.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>413.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>4432.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
